--- a/jycboliviaASP.net/DocumentosCorpal/recetos y produccion/pruebas/Plan241009.xlsx
+++ b/jycboliviaASP.net/DocumentosCorpal/recetos y produccion/pruebas/Plan241009.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Sistema\Documents\GitHub\jyc_corpal\jycboliviaASP.net\DocumentosCorpal\recetos y produccion\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD24E116-F661-42BA-87F7-EA4D7D6432DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F16702A-B5B1-4FD5-A1F3-C4EA406E7C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pipa" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="354">
   <si>
     <t>Pipanax 11x26</t>
   </si>
@@ -1255,9 +1255,6 @@
   </si>
   <si>
     <t>Aquí revisar</t>
-  </si>
-  <si>
-    <t>mal</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1265,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1315,6 +1312,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1547,7 +1552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1615,6 +1620,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1639,9 +1647,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1954,7 +1960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -2352,10 +2358,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="47"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -2600,10 +2606,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="47"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -2873,24 +2879,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28">
         <v>0</v>
       </c>
@@ -5364,14 +5370,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
@@ -7831,14 +7837,14 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
-      <c r="B125" s="51" t="s">
+      <c r="B125" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="C125" s="52"/>
-      <c r="D125" s="52"/>
-      <c r="E125" s="52"/>
-      <c r="F125" s="52"/>
-      <c r="G125" s="53"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="55"/>
+      <c r="G125" s="56"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
@@ -8048,16 +8054,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="54" t="str">
+      <c r="B1" s="57" t="str">
         <f>+Resumen!B1</f>
         <v>PLAN PRODUCCIÓN 09 DE OCTUBRE</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
@@ -9674,7 +9680,7 @@
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
-      <c r="G69" s="55">
+      <c r="G69" s="47">
         <f>+G43</f>
         <v>32</v>
       </c>
@@ -11561,7 +11567,7 @@
       <c r="C30">
         <v>0.16</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="48">
         <f>+C30*$C$28</f>
         <v>7.04</v>
       </c>
@@ -11756,7 +11762,7 @@
       <c r="C45">
         <v>0.26</v>
       </c>
-      <c r="G45" s="56">
+      <c r="G45" s="48">
         <f>+C45*$C$41+G30</f>
         <v>22.119999999999997</v>
       </c>
@@ -11928,7 +11934,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11986,12 +11992,9 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="49">
         <f>+ROUND(E3/I3,0)*I3</f>
         <v>16.5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>354</v>
       </c>
       <c r="I3">
         <v>16.5</v>
@@ -12016,12 +12019,9 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="41"/>
-      <c r="G4" s="57">
+      <c r="G4" s="49">
         <f>+C4*G$3-F4</f>
         <v>75.899999999999991</v>
-      </c>
-      <c r="H4" t="s">
-        <v>354</v>
       </c>
       <c r="K4">
         <f>+IF(K3=0,0,INT(K3)+1)</f>
@@ -12040,12 +12040,9 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="57">
+      <c r="G5" s="49">
         <f t="shared" ref="G5:G10" si="0">+C5*G$3-F5</f>
         <v>4.125</v>
-      </c>
-      <c r="H5" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12060,12 +12057,9 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="57">
+      <c r="G6" s="49">
         <f t="shared" si="0"/>
         <v>2.4750000000000001</v>
-      </c>
-      <c r="H6" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12080,12 +12074,9 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="57">
+      <c r="G7" s="49">
         <f t="shared" si="0"/>
         <v>16.5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12102,12 +12093,9 @@
       <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="49">
         <f t="shared" si="0"/>
         <v>14.025</v>
-      </c>
-      <c r="H8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12122,12 +12110,9 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="57">
+      <c r="G9" s="49">
         <f t="shared" si="0"/>
         <v>33.494999999999997</v>
-      </c>
-      <c r="H9" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12142,13 +12127,11 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="57">
+      <c r="G10" s="49">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="H10" t="s">
-        <v>354</v>
-      </c>
+      <c r="H10" s="58"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" s="5"/>
